--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Авторизироваться</t>
   </si>
@@ -87,13 +87,40 @@
   </si>
   <si>
     <t>Ноговицына Ольга</t>
+  </si>
+  <si>
+    <t>Соревнование</t>
+  </si>
+  <si>
+    <t>Вид спорта</t>
+  </si>
+  <si>
+    <t>Спортсмен</t>
+  </si>
+  <si>
+    <t>Составление отчета</t>
+  </si>
+  <si>
+    <t>Пользователь</t>
+  </si>
+  <si>
+    <t>Добавить организатора</t>
+  </si>
+  <si>
+    <t>Редактировать организатора</t>
+  </si>
+  <si>
+    <t>Удалить организатора</t>
+  </si>
+  <si>
+    <t>Классы:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +139,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -158,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -169,6 +204,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:J7"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +507,7 @@
     <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
@@ -476,7 +518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="5:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="5:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -509,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
@@ -520,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -531,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="5:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,6 +582,43 @@
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
